--- a/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20385"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario.rahmatpour\Desktop\COME\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6074D0-C82E-4D38-B30B-D5864ED16A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F92A8F-1D94-408F-85DF-727C1C153B5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Modifica manuale di progetto e consegna 2</t>
+  </si>
+  <si>
+    <t>Creazione Activity Diagram "login"</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -910,10 +913,18 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="A26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6">
+        <v>44679</v>
+      </c>
+      <c r="C26" s="5">
+        <v>90</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>

--- a/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario.rahmatpour\Desktop\COME\LavoroGruppo\Consegna3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.iob\Desktop\COME\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F92A8F-1D94-408F-85DF-727C1C153B5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA96E79-3971-4FCE-A878-471DC42061B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Creazione Activity Diagram "login"</t>
+  </si>
+  <si>
+    <t>Creazione Activity Diagram "Inserimento dati"</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -220,6 +223,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -228,7 +242,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -250,6 +264,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -593,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -843,22 +859,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="6">
-        <v>44671</v>
-      </c>
-      <c r="C21" s="5">
-        <v>60</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>31</v>
+      <c r="A21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44670</v>
+      </c>
+      <c r="C21" s="1">
+        <v>120</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="6">
         <v>44671</v>
@@ -867,21 +883,21 @@
         <v>60</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="6">
-        <v>44674</v>
+        <v>44671</v>
       </c>
       <c r="C23" s="5">
         <v>60</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,13 +905,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="6">
-        <v>44676</v>
+        <v>44674</v>
       </c>
       <c r="C24" s="5">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,40 +919,42 @@
         <v>9</v>
       </c>
       <c r="B25" s="6">
-        <v>44677</v>
+        <v>44676</v>
       </c>
       <c r="C25" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="6">
+        <v>44677</v>
+      </c>
+      <c r="C26" s="5">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B27" s="6">
         <v>44679</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C27" s="5">
         <v>90</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.iob\Desktop\COME\LavoroGruppo\Consegna3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA96E79-3971-4FCE-A878-471DC42061B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D820C28-E113-4C06-AD39-8F4A510B3A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Creazione Activity Diagram "Inserimento dati"</t>
+  </si>
+  <si>
+    <t>Simone, Dario, Fabio, Aaron</t>
+  </si>
+  <si>
+    <t>Discussione Analisi tecnologie e Preventivo costi</t>
   </si>
 </sst>
 </file>
@@ -609,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -956,6 +962,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44679</v>
+      </c>
+      <c r="C28" s="5">
+        <v>30</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20385"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simone.guida\Desktop\COME\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D820C28-E113-4C06-AD39-8F4A510B3A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE77B7A-9BB7-4582-95A1-C5AF2649DACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stato di avanzamento" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Discussione Analisi tecnologie e Preventivo costi</t>
+  </si>
+  <si>
+    <t>tot</t>
   </si>
 </sst>
 </file>
@@ -615,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -976,6 +979,15 @@
         <v>39</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1">
+        <f>SUM(C7:C28)/60</f>
+        <v>26.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simone.guida\Desktop\COME\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE77B7A-9BB7-4582-95A1-C5AF2649DACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C607EF5B-018F-4F7A-A907-D634FEA19BED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>tot</t>
+  </si>
+  <si>
+    <t>Simone, Dario</t>
+  </si>
+  <si>
+    <t>Creazione Analisi tecnologie e Preventivo costi</t>
   </si>
 </sst>
 </file>
@@ -618,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -980,10 +986,24 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="6">
+        <v>44686</v>
+      </c>
+      <c r="C29" s="5">
+        <v>30</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <f>SUM(C7:C28)/60</f>
         <v>26.5</v>
       </c>

--- a/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simone.guida\Desktop\COME\LavoroGruppo\Consegna3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C607EF5B-018F-4F7A-A907-D634FEA19BED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28098685-03B4-47B2-B51D-4180E61E9514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,16 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -147,13 +157,16 @@
     <t>Discussione Analisi tecnologie e Preventivo costi</t>
   </si>
   <si>
-    <t>tot</t>
-  </si>
-  <si>
     <t>Simone, Dario</t>
   </si>
   <si>
     <t>Creazione Analisi tecnologie e Preventivo costi</t>
+  </si>
+  <si>
+    <t>Ultimazione Analisi tecnologie e Preventivo costi</t>
+  </si>
+  <si>
+    <t>Totale ore</t>
   </si>
 </sst>
 </file>
@@ -215,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -242,10 +255,36 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -257,7 +296,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -279,8 +318,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -624,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -880,10 +924,10 @@
       <c r="B21" s="10">
         <v>44670</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <v>120</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -987,7 +1031,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6">
         <v>44686</v>
@@ -996,21 +1040,55 @@
         <v>30</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6">
+        <v>44687</v>
+      </c>
+      <c r="C30" s="5">
+        <v>60</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="1">
-        <f>SUM(C7:C28)/60</f>
-        <v>26.5</v>
-      </c>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A34:B34"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
+++ b/LavoroGruppo/Consegna3/Stato_di_avanzamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simog\Desktop\COME\LavoroGruppo\Consegna3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simone.guida\Desktop\COME\LavoroGruppo\Consegna3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28098685-03B4-47B2-B51D-4180E61E9514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E9C6C4-7BB6-44EF-849F-E67F6EEAF321}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,16 +17,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -167,6 +157,9 @@
   </si>
   <si>
     <t>Totale ore</t>
+  </si>
+  <si>
+    <t>Preparazione manuale di progetto per consegna 3</t>
   </si>
 </sst>
 </file>
@@ -296,7 +289,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -319,12 +312,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -670,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -921,7 +913,7 @@
       <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>44670</v>
       </c>
       <c r="C21" s="5">
@@ -1058,10 +1050,18 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44700</v>
+      </c>
+      <c r="C31" s="5">
+        <v>60</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="13"/>
+      <c r="D34" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
